--- a/qPCR_stat/BulkSoil_qPCR_Stat.xlsx
+++ b/qPCR_stat/BulkSoil_qPCR_Stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fina\INRAE_Project\microservices\qPCR_stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arifinabintarti/Documents/France/microservices/qPCR_stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE99B76-D2B0-4391-8CF8-6F5A13D88856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3DEDF-DEF0-BA46-9D33-8797EA2FE9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="900" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="6" xr2:uid="{35CC6618-9CDF-469B-8401-3B90DBE67AFF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{35CC6618-9CDF-469B-8401-3B90DBE67AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="AOA_log_dws" sheetId="1" r:id="rId1"/>
@@ -197,12 +197,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,21 +519,21 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -557,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -577,7 +576,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -600,7 +599,7 @@
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -623,7 +622,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -643,7 +642,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -663,7 +662,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -683,7 +682,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -703,7 +702,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -729,7 +728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -758,7 +757,7 @@
         <v>0.58569816500000005</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -787,7 +786,7 @@
         <v>0.94449883899999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -816,7 +815,7 @@
         <v>0.228309872</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -845,7 +844,7 @@
         <v>0.54427869200000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -874,7 +873,7 @@
         <v>0.21129863199999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -903,7 +902,7 @@
         <v>0.60279028700000004</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -932,7 +931,7 @@
         <v>0.48362095500000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -961,7 +960,7 @@
         <v>0.65615923899999995</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -990,7 +989,7 @@
         <v>0.57492580400000004</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>0.84632562300000003</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>0.90293475099999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>0.282108582</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>0.66055162999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>0.60651071599999995</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
@@ -1178,18 +1177,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1252,7 +1251,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1275,7 +1274,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1384,7 +1383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>0.13709232900000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1442,7 +1441,7 @@
         <v>0.30482466400000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>0.55557200699999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>0.27994980600000002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>0.22055633699999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>0.59280139099999996</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1587,7 +1586,7 @@
         <v>0.96165152799999998</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1616,7 +1615,7 @@
         <v>0.68605632900000002</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>0.97718059099999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -1674,7 +1673,7 @@
         <v>0.51056025000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>0.36879143199999997</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v>0.12701072099999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>0.232073587</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
@@ -1835,13 +1834,13 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -2039,7 +2038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2068,7 +2067,7 @@
         <v>0.175986794827096</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>0.309283661581785</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2126,7 +2125,7 @@
         <v>0.43149237691581299</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>0.26446374150257201</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>0.22564829708501699</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2213,7 +2212,7 @@
         <v>0.68442778927357995</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2242,7 +2241,7 @@
         <v>0.85092229818623799</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>0.694177021774255</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>0.92835078662683401</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>0.53281309244932396</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -2358,7 +2357,7 @@
         <v>0.381139083722845</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -2390,7 +2389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>0.22044802143794301</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
@@ -2493,18 +2492,18 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2567,7 +2566,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2757,7 +2756,7 @@
         <v>0.20380491143969401</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>0.53386084436938097</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>0.57349938064793704</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>0.85728292139871098</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2873,7 +2872,7 @@
         <v>0.207247340296045</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>0.60007048974448096</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2931,7 +2930,7 @@
         <v>0.89591150950246201</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>0.41563777189048501</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>0.40933767577248098</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>0.28709013602252698</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3079,7 +3078,7 @@
         <v>0.105251794959333</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>0.11233663188213699</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
@@ -3150,13 +3149,13 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3225,7 +3224,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3248,7 +3247,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3308,7 +3307,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3415,7 +3414,7 @@
         <v>0.62379863452401096</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>0.56765856972391104</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>0.16769341546939701</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -3534,7 +3533,7 @@
         <v>0.26828994535938799</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -3595,7 +3594,7 @@
         <v>0.27924442076850903</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>0.90101423203184305</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3685,7 +3684,7 @@
         <v>0.128425025794385</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>0.105784974847885</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>0.12991430707270299</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
@@ -3820,18 +3819,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3854,7 +3853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3894,7 +3893,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3917,7 +3916,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3977,7 +3976,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3997,7 +3996,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4052,7 +4051,7 @@
         <v>0.90930865831604402</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4081,7 +4080,7 @@
         <v>0.31604890684206399</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>0.89725000094399499</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>0.55788486644263802</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -4168,7 +4167,7 @@
         <v>0.12874028535833301</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -4197,7 +4196,7 @@
         <v>0.474918469200105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>0.22846028223289</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>0.17557254786240101</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>0.57476872948074298</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>0.92089953656045398</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>0.26127614875957</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -4371,7 +4370,7 @@
         <v>0.32726738367744301</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -4400,7 +4399,7 @@
         <v>0.83413513141696005</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>0.22181945262626199</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
@@ -4471,18 +4470,18 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4525,7 +4524,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4545,7 +4544,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>0.495</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4588,7 +4587,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4628,7 +4627,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -4674,7 +4673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>0.70743316954065205</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4732,7 +4731,7 @@
         <v>0.90143651787354995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4761,7 +4760,7 @@
         <v>0.69458883847163799</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>0.75969293034265295</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -4819,7 +4818,7 @@
         <v>0.42943799028377799</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>0.97327278059991196</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>0.76698272129296197</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>0.69576532931722701</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>0.402592890871247</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>0.35044076210758401</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>0.51847995244232903</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>0.33438360052992</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -5051,7 +5050,7 @@
         <v>0.965175354774084</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>0.97374741422216204</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
@@ -5122,18 +5121,18 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5156,7 +5155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5176,7 +5175,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5242,7 +5241,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5282,7 +5281,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -5328,7 +5327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>0.66269386429590704</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>0.51468635766255</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5415,7 +5414,7 @@
         <v>0.52684563904230197</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -5444,39 +5443,39 @@
         <v>0.22333169170870701</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <v>0.20289396302476501</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>0.10030478198748299</v>
       </c>
-      <c r="G17" s="4">
-        <v>18</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="H17">
         <v>2.0227745776874699</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17">
         <v>5.8209902847122401E-2</v>
       </c>
       <c r="J17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -5505,7 +5504,7 @@
         <v>0.59235131248266804</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>0.63788634995629201</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>0.39551941453884998</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -5592,7 +5591,7 @@
         <v>0.26157178959145799</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -5621,7 +5620,7 @@
         <v>0.21845008873466901</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -5650,7 +5649,7 @@
         <v>0.28776422531918899</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>0.1194192679448</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>0.27876521496783502</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -5740,7 +5739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
@@ -5781,22 +5780,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8C5084-8452-404C-AFC3-591D4B9392C8}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5819,7 +5818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5839,7 +5838,7 @@
         <v>3.86E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5925,7 +5924,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5945,7 +5944,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -5991,7 +5990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6020,7 +6019,7 @@
         <v>0.11835547973827</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>0.22338308287688599</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>0.95896297658115104</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>0.82957716527699499</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -6136,7 +6135,7 @@
         <v>0.15921195973226401</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -6165,7 +6164,7 @@
         <v>0.73199281301430297</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>0.49146939897223502</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>0.67976578930718701</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -6252,7 +6251,7 @@
         <v>0.74692765783840498</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>0.75061171306646801</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>0.96231277797467496</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>0.90771485639470795</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -6368,7 +6367,7 @@
         <v>0.64700828059526405</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>0.12670176815221901</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
@@ -6439,18 +6438,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6473,7 +6472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6539,7 +6538,7 @@
         <v>0.622</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6559,7 +6558,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6599,7 +6598,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>0.135484702704845</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6735,7 +6734,7 @@
         <v>0.38418724571348101</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -6764,7 +6763,7 @@
         <v>0.82851690251146004</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -6793,7 +6792,7 @@
         <v>0.99093885503286105</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>0.46260423149256302</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -6851,7 +6850,7 @@
         <v>0.95330088747257602</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -6880,7 +6879,7 @@
         <v>0.97424294175562298</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>0.60822728706072104</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>0.49352647877877298</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -6967,7 +6966,7 @@
         <v>0.68328739772251801</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v>0.32730811881025101</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -7025,7 +7024,7 @@
         <v>0.54940632136698597</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
@@ -7095,22 +7094,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A49ED9-41BA-4B45-9642-149975EE17E3}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7133,7 +7132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7156,7 +7155,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7219,7 +7218,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -7305,7 +7304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7334,7 +7333,7 @@
         <v>0.26716784500000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>0.73919195199999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -7392,7 +7391,7 @@
         <v>0.70659887799999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>0.58149856899999997</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -7450,7 +7449,7 @@
         <v>0.54090276000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -7482,7 +7481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>0.80743685099999996</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -7540,7 +7539,7 @@
         <v>0.18297260700000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -7569,7 +7568,7 @@
         <v>0.87131783799999996</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -7598,7 +7597,7 @@
         <v>0.82139127099999998</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -7627,7 +7626,7 @@
         <v>0.13308614599999999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -7656,7 +7655,7 @@
         <v>0.74800067000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>0.26994228300000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>0.433422733</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
@@ -7753,21 +7752,21 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7790,7 +7789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -7836,7 +7835,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7856,7 +7855,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>6.02E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -7962,7 +7961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7991,7 +7990,7 @@
         <v>0.278905913514221</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8020,7 +8019,7 @@
         <v>0.63099882223385095</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>0.68022664162289903</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -8078,7 +8077,7 @@
         <v>0.614268442438754</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8107,7 +8106,7 @@
         <v>0.53348549524174804</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -8139,7 +8138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -8168,7 +8167,7 @@
         <v>0.79484511855483697</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -8197,7 +8196,7 @@
         <v>0.21215679657626299</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -8226,7 +8225,7 @@
         <v>0.86535646570940095</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -8255,7 +8254,7 @@
         <v>0.83196363718728905</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>0.103832068578833</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -8313,7 +8312,7 @@
         <v>0.76007212030818905</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -8342,7 +8341,7 @@
         <v>0.26893494533498402</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -8371,7 +8370,7 @@
         <v>0.44336233465185998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
@@ -8413,18 +8412,18 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8447,7 +8446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8467,7 +8466,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -8490,7 +8489,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>0.56299999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -8553,7 +8552,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -8573,7 +8572,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -8593,7 +8592,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -8619,7 +8618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -8648,7 +8647,7 @@
         <v>0.88918190285204202</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>0.274314187218893</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -8706,7 +8705,7 @@
         <v>0.588266559747878</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -8735,7 +8734,7 @@
         <v>0.94881334084511404</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8764,7 +8763,7 @@
         <v>0.79303632645117295</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>0.78758559502335801</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -8822,7 +8821,7 @@
         <v>0.78286478895565703</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -8851,7 +8850,7 @@
         <v>0.30022952986764601</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -8880,7 +8879,7 @@
         <v>0.86645235024350897</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -8909,7 +8908,7 @@
         <v>0.69021208425749203</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -8938,7 +8937,7 @@
         <v>0.200547801075663</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -8967,7 +8966,7 @@
         <v>0.59968121351827397</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -8996,7 +8995,7 @@
         <v>0.32082047738500802</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -9025,7 +9024,7 @@
         <v>0.64842536439085596</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>

--- a/qPCR_stat/BulkSoil_qPCR_Stat.xlsx
+++ b/qPCR_stat/BulkSoil_qPCR_Stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arifinabintarti/Documents/France/microservices/qPCR_stat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fina\INRAE_Project\microservices\qPCR_stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3DEDF-DEF0-BA46-9D33-8797EA2FE9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8C56B4-B2A7-4515-A3DB-9BC82CC15E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{35CC6618-9CDF-469B-8401-3B90DBE67AFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{35CC6618-9CDF-469B-8401-3B90DBE67AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="AOA_log_dws" sheetId="1" r:id="rId1"/>
@@ -522,18 +522,18 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -576,7 +576,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -599,7 +599,7 @@
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -642,7 +642,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -662,7 +662,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -682,7 +682,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -702,7 +702,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -757,7 +757,7 @@
         <v>0.58569816500000005</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0.94449883899999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -815,7 +815,7 @@
         <v>0.228309872</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0.54427869200000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -873,7 +873,7 @@
         <v>0.21129863199999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -902,7 +902,7 @@
         <v>0.60279028700000004</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -931,7 +931,7 @@
         <v>0.48362095500000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0.65615923899999995</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -989,7 +989,7 @@
         <v>0.57492580400000004</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>0.84632562300000003</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>0.90293475099999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0.282108582</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>0.66055162999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0.60651071599999995</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -1177,18 +1177,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>0.13709232900000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0.30482466400000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>0.55557200699999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>0.27994980600000002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0.22055633699999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0.59280139099999996</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>0.96165152799999998</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>0.68605632900000002</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0.97718059099999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0.51056025000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0.36879143199999997</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>0.12701072099999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>0.232073587</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -1830,17 +1830,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89498CE-2F3F-4FF2-89AE-E4BD533B838C}">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>0.175986794827096</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>0.309283661581785</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0.43149237691581299</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>0.26446374150257201</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>0.22564829708501699</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>0.68442778927357995</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0.85092229818623799</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>0.694177021774255</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>0.92835078662683401</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>0.53281309244932396</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>0.381139083722845</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>0.22044802143794301</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -2492,18 +2492,18 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>0.20380491143969401</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>0.53386084436938097</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0.57349938064793704</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>0.85728292139871098</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>0.207247340296045</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>0.60007048974448096</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>0.89591150950246201</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>0.41563777189048501</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>0.40933767577248098</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0.28709013602252698</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0.105251794959333</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>0.11233663188213699</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -3149,13 +3149,13 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>0.62379863452401096</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>0.56765856972391104</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>0.16769341546939701</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>0.26828994535938799</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0.27924442076850903</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0.90101423203184305</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0.128425025794385</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>0.105784974847885</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0.12991430707270299</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -3819,18 +3819,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>0.90930865831604402</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>0.31604890684206399</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>0.89725000094399499</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>0.55788486644263802</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>0.12874028535833301</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>0.474918469200105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0.22846028223289</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0.17557254786240101</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>0.57476872948074298</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>0.92089953656045398</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>0.26127614875957</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>0.32726738367744301</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>0.83413513141696005</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0.22181945262626199</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -4470,18 +4470,18 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>0.495</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0.70743316954065205</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0.90143651787354995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>0.69458883847163799</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>0.75969293034265295</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>0.42943799028377799</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>0.97327278059991196</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>0.76698272129296197</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>0.69576532931722701</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>0.402592890871247</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>0.35044076210758401</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>0.51847995244232903</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>0.33438360052992</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0.965175354774084</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>0.97374741422216204</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -5121,18 +5121,18 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>0.66269386429590704</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>0.51468635766255</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>0.52684563904230197</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0.22333169170870701</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>0.59235131248266804</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>0.63788634995629201</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>0.39551941453884998</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>0.26157178959145799</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0.21845008873466901</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>0.28776422531918899</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>0.1194192679448</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>0.27876521496783502</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -5780,22 +5780,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8C5084-8452-404C-AFC3-591D4B9392C8}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>3.86E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>0.11835547973827</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>0.22338308287688599</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>0.95896297658115104</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>0.82957716527699499</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>0.15921195973226401</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>0.73199281301430297</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>0.49146939897223502</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>0.67976578930718701</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>0.74692765783840498</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>0.75061171306646801</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>0.96231277797467496</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>0.90771485639470795</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>0.64700828059526405</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>0.12670176815221901</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -6435,21 +6435,21 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>0.622</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>0.135484702704845</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>0.38418724571348101</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>0.82851690251146004</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>0.99093885503286105</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>0.46260423149256302</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>0.95330088747257602</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>0.97424294175562298</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>0.60822728706072104</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>0.49352647877877298</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>0.68328739772251801</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>0.32730811881025101</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0.54940632136698597</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -7094,22 +7094,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A49ED9-41BA-4B45-9642-149975EE17E3}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0.26716784500000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>0.73919195199999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>0.70659887799999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>0.58149856899999997</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>0.54090276000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>0.80743685099999996</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>0.18297260700000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>0.87131783799999996</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>0.82139127099999998</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>0.13308614599999999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>0.74800067000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>0.26994228300000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>0.433422733</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -7755,18 +7755,18 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>6.02E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>0.278905913514221</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>0.63099882223385095</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>0.68022664162289903</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>0.614268442438754</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>0.53348549524174804</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>0.79484511855483697</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>0.21215679657626299</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>0.86535646570940095</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>0.83196363718728905</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>0.103832068578833</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>0.76007212030818905</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0.26893494533498402</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>0.44336233465185998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -8412,18 +8412,18 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>0.56299999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>0.88918190285204202</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>0.274314187218893</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>0.588266559747878</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>0.94881334084511404</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0.79303632645117295</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>0.78758559502335801</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>0.78286478895565703</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>0.30022952986764601</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>0.86645235024350897</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>0.69021208425749203</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>0.200547801075663</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>0.59968121351827397</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>0.32082047738500802</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>0.64842536439085596</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
